--- a/data/trans_camb/P23_5_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_5_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-7,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-6,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-3,03</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-3,74</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-3,56</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-1,61</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 7,75</t>
+          <t>-6,66; 3,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 2,56</t>
+          <t>-7,15; 3,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 4,61</t>
+          <t>-7,11; 3,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 3,08</t>
+          <t>-19,08; 4,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 4,11</t>
+          <t>-18,24; 3,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 2,14</t>
+          <t>-15,28; 8,36</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-10,16; 2,13</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-10,3; 2,78</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-9,01; 5,11</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>121,75%</t>
+          <t>-13,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-20,52%</t>
+          <t>-21,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-20,58%</t>
+          <t>-24,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-31,56%</t>
+          <t>-54,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>-50,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-27,11%</t>
+          <t>-23,66%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-49,79%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-47,37%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-21,4%</t>
         </is>
       </c>
     </row>
@@ -725,22 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-75,68; 111,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-78,9; 82,96</t>
+          <t>-94,47; 81,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,23; 140,25</t>
+          <t>-87,93; 74,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-73,08; 82,27</t>
+          <t>-76,85; 151,1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-91,2; 87,17</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-88,23; 101,56</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-79,38; 130,84</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3,79</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,88</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 9,56</t>
+          <t>-1,92; 19,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 3,95</t>
+          <t>-3,73; 8,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 4,05</t>
+          <t>-7,22; 1,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 2,57</t>
+          <t>-1,53; 6,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 5,81</t>
+          <t>-3,75; 3,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,05</t>
+          <t>-3,14; 4,26</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-0,18; 10,24</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,62; 4,23</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-3,7; 1,78</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>76,33%</t>
+          <t>101,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>32,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>-44,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-12,18%</t>
+          <t>69,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>48,88%</t>
+          <t>-14,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,24%</t>
+          <t>13,7%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>89,85%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16,56%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-20,76%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,99; 334,23</t>
+          <t>-36,0; 729,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-56,88; 152,28</t>
+          <t>-56,97; 303,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-54,24; 185,99</t>
+          <t>-87,04; 98,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-68,02; 124,84</t>
+          <t>-36,55; 383,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,38; 192,98</t>
+          <t>-80,09; 215,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,3; 69,4</t>
+          <t>-68,52; 230,9</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-14,45; 315,41</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-47,28; 150,2</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-64,33; 68,88</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>8,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>2,43</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,14</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 10,2</t>
+          <t>-0,7; 17,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 3,88</t>
+          <t>-2,54; 5,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,36</t>
+          <t>2,7; 17,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 5,24</t>
+          <t>-3,18; 3,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 4,41</t>
+          <t>-1,21; 6,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 3,28</t>
+          <t>-0,91; 6,06</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 7,74</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-0,78; 4,44</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1,96; 9,88</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>72,3%</t>
+          <t>197,12%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>40,29%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,58%</t>
+          <t>371,91%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>93,0%</t>
+          <t>-8,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>34,87%</t>
+          <t>105,87%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>46,96%</t>
+          <t>113,64%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>85,87%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>75,51%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>236,59%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-64,05; 837,54</t>
+          <t>-68,89; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-76,61; 345,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-79,68; 234,93</t>
+          <t>-2,18; 2301,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-29,71; 538,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-43,88; 277,74</t>
+          <t>-50,58; 781,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,1; 205,37</t>
+          <t>-43,68; 851,04</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-49,31; 727,74</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-39,08; 434,18</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>34,93; 844,57</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,03; 6,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 2,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 2,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 1,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>82,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>36,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 289,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-50,94; 106,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-43,28; 80,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,47; 86,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 113,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,78; 53,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4,18</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 12,81</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 5,43</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,61; 5,43</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 2,59</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,8; 2,55</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,92; 4,06</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 5,44</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,58; 2,7</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 4,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>117,62%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>33,1%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>44,91%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-3,27%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>26,25%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>51,72%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>12,65%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>34,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-10,06; 525,14</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-38,64; 265,7</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-36,49; 266,37</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-48,16; 91,1</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-53,13; 88,15</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-37,76; 136,91</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-10,25; 186,09</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-32,42; 94,23</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-19,14; 123,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
